--- a/ToDoApp-Doc/Document/Diagram/UseCase/MyMusic/MyMusicSpecification.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/UseCase/MyMusic/MyMusicSpecification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7830" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="19815" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="View List Music" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
   <si>
     <t>Use-case number:</t>
   </si>
@@ -65,6 +65,9 @@
     <t>Alternative paths:</t>
   </si>
   <si>
+    <t>Không có</t>
+  </si>
+  <si>
     <t>Exception paths:</t>
   </si>
   <si>
@@ -80,10 +83,10 @@
     <t>Triggers:</t>
   </si>
   <si>
-    <t>Người dùng nhấn vào My Mussic</t>
-  </si>
-  <si>
     <t>Pre-condition:</t>
+  </si>
+  <si>
+    <t>Người dùng sử dụng To-Do App</t>
   </si>
   <si>
     <t>Post-condition:</t>
@@ -204,12 +207,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -217,41 +220,92 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,6 +317,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -271,11 +332,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,14 +363,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -310,31 +378,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,43 +407,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -400,31 +423,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,55 +579,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,91 +597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,6 +711,45 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,58 +781,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,177 +801,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1225,123 +1261,129 @@
   <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="50.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="51.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="37.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="11.7142857142857" style="12" customWidth="1"/>
+    <col min="2" max="2" width="43.5714285714286" style="12" customWidth="1"/>
+    <col min="3" max="3" width="61.2857142857143" style="12" customWidth="1"/>
+    <col min="4" max="4" width="60.8571428571429" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="14.4285714285714" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" ht="18.75" spans="2:4">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:4">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" ht="18.75" spans="2:4">
-      <c r="B3" s="1" t="s">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" ht="18.75" spans="2:4">
-      <c r="B4" s="1" t="s">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" ht="18.75" spans="2:4">
-      <c r="B5" s="1" t="s">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" ht="18.75" spans="2:4">
-      <c r="B6" s="1" t="s">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="56.25" spans="2:4">
-      <c r="B7" s="1" t="s">
+    <row r="7" ht="47.25" spans="2:4">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="18.75" spans="2:4">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="2:4">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" ht="18.75" spans="2:4">
-      <c r="B9" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" ht="18.75" spans="2:4">
-      <c r="B10" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" ht="18.75" spans="2:4">
-      <c r="B11" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" ht="18.75" spans="2:4">
-      <c r="B12" s="1" t="s">
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" ht="18.75" spans="2:4">
-      <c r="B13" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1369,134 +1411,138 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="46.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="55.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="46.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="14.4285714285714" style="12"/>
+    <col min="2" max="2" width="44.4285714285714" style="12" customWidth="1"/>
+    <col min="3" max="3" width="55.7142857142857" style="12" customWidth="1"/>
+    <col min="4" max="4" width="46.4285714285714" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="14.4285714285714" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" ht="18.75" spans="2:4">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:4">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" ht="18.75" spans="2:4">
-      <c r="B3" s="1" t="s">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" ht="18.75" spans="2:4">
-      <c r="B4" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" ht="18.75" spans="2:4">
-      <c r="B5" s="1" t="s">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" ht="30.75" customHeight="1" spans="2:4">
-      <c r="B6" s="1" t="s">
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="52.5" customHeight="1" spans="2:4">
-      <c r="B7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="2:4">
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" ht="63.75" customHeight="1" spans="2:4">
-      <c r="B8" s="6"/>
-      <c r="C8" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" ht="18.75" spans="2:4">
-      <c r="B9" s="1" t="s">
+      <c r="D8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" ht="18.75" spans="2:4">
-      <c r="B10" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" ht="18.75" spans="2:4">
-      <c r="B11" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" ht="18.75" spans="2:4">
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" ht="18.75" spans="2:4">
-      <c r="B13" s="1" t="s">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" ht="18.75" spans="2:4">
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1524,8 +1570,8 @@
   </sheetPr>
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
@@ -1535,124 +1581,126 @@
     <col min="4" max="4" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="18.75" spans="2:4">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:4">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" ht="18.75" spans="2:4">
-      <c r="B3" s="1" t="s">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" ht="18.75" spans="2:4">
-      <c r="B4" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" ht="18.75" spans="2:4">
-      <c r="B5" s="1" t="s">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" ht="18.75" spans="2:4">
-      <c r="B6" s="1" t="s">
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="50.25" customHeight="1" spans="2:4">
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    <row r="7" spans="2:4">
+      <c r="B7" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" ht="66.75" customHeight="1" spans="2:4">
-      <c r="B8" s="6"/>
-      <c r="C8" s="1" t="s">
+      <c r="C7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" ht="18.75" spans="2:4">
-      <c r="B9" s="1" t="s">
+      <c r="D8" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" ht="18.75" spans="2:4">
-      <c r="B10" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" ht="18.75" spans="2:4">
-      <c r="B11" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" ht="18.75" spans="2:4">
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" ht="18.75" spans="2:4">
-      <c r="B13" s="1" t="s">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" ht="18.75" spans="2:4">
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="3"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1678,10 +1726,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:D15"/>
+  <dimension ref="B1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
@@ -1691,133 +1739,138 @@
     <col min="4" max="4" width="50.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="18.75" spans="2:4">
-      <c r="B2" s="1" t="s">
+    <row r="1" customHeight="1" spans="2:2">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" ht="18.75" spans="2:4">
-      <c r="B3" s="1" t="s">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" ht="18.75" spans="2:4">
-      <c r="B4" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" ht="18.75" spans="2:4">
-      <c r="B5" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" ht="18.75" spans="2:4">
-      <c r="B6" s="1" t="s">
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="2:4">
-      <c r="B7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" ht="52.5" customHeight="1" spans="2:4">
-      <c r="B8" s="5"/>
-      <c r="C8" s="1" t="s">
+    <row r="7" spans="2:4">
+      <c r="B7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="7"/>
+      <c r="C8" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" ht="74.25" customHeight="1" spans="2:4">
-      <c r="B9" s="6"/>
-      <c r="C9" s="1" t="s">
+      <c r="D8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="9" ht="31.5" spans="2:4">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" ht="18.75" spans="2:4">
-      <c r="B10" s="1" t="s">
+      <c r="D9" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" ht="18.75" spans="2:4">
-      <c r="B11" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" ht="18.75" spans="2:4">
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" ht="18.75" spans="2:4">
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" ht="18.75" spans="2:4">
-      <c r="B14" s="1" t="s">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" ht="18.75" spans="2:4">
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="C14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">
